--- a/MainTop/17.02.2025/2 нед с 03.02.2025 по 17.02.2025/p1.xlsx
+++ b/MainTop/17.02.2025/2 нед с 03.02.2025 по 17.02.2025/p1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\17.02.2025\2 нед с 03.02.2025 по 17.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE692388-F627-475D-BC42-4F35827BD237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F27CB5B-4CBD-4093-8D02-FF14425C36A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{760CAD9D-0C8C-4B51-A28F-26AB52C7400B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Артикул</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Термонаклейка Девушка силует туман лес птицы</t>
-  </si>
-  <si>
-    <t>Термонаклейка Крылья красочные маслом</t>
   </si>
 </sst>
 </file>
@@ -446,13 +443,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C640322C-94A3-4ECA-B109-6AEDCC479578}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I5" si="0">F3/2</f>
+        <f t="shared" ref="I3:I4" si="0">F3/2</f>
         <v>45</v>
       </c>
     </row>
@@ -568,36 +568,6 @@
       <c r="I4" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2">
-        <v>66</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1825</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" si="0"/>
-        <v>33</v>
       </c>
     </row>
   </sheetData>
